--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nid1-Itgb3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H2">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I2">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J2">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N2">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O2">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P2">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q2">
-        <v>566.5240693108789</v>
+        <v>564.6655574953071</v>
       </c>
       <c r="R2">
-        <v>5098.71662379791</v>
+        <v>5081.990017457763</v>
       </c>
       <c r="S2">
-        <v>0.1596128816723334</v>
+        <v>0.1550336223028724</v>
       </c>
       <c r="T2">
-        <v>0.1596128816723334</v>
+        <v>0.1550336223028723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H3">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I3">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J3">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>8.262912</v>
       </c>
       <c r="O3">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P3">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q3">
-        <v>236.0570973298346</v>
+        <v>254.4705165548373</v>
       </c>
       <c r="R3">
-        <v>2124.513875968512</v>
+        <v>2290.234648993536</v>
       </c>
       <c r="S3">
-        <v>0.06650688926571591</v>
+        <v>0.06986699547564905</v>
       </c>
       <c r="T3">
-        <v>0.06650688926571593</v>
+        <v>0.06986699547564902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H4">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I4">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J4">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N4">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O4">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P4">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q4">
-        <v>19.65071278205845</v>
+        <v>52.51815557030567</v>
       </c>
       <c r="R4">
-        <v>176.856415038526</v>
+        <v>472.663400132751</v>
       </c>
       <c r="S4">
-        <v>0.005536405360278793</v>
+        <v>0.0144192961420317</v>
       </c>
       <c r="T4">
-        <v>0.005536405360278793</v>
+        <v>0.01441929614203169</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H5">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I5">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J5">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N5">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O5">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P5">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q5">
-        <v>22.77019640790778</v>
+        <v>34.08422959442744</v>
       </c>
       <c r="R5">
-        <v>204.93176767117</v>
+        <v>306.758066349847</v>
       </c>
       <c r="S5">
-        <v>0.006415290826622931</v>
+        <v>0.009358108542809015</v>
       </c>
       <c r="T5">
-        <v>0.006415290826622933</v>
+        <v>0.00935810854280901</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.70480866666666</v>
+        <v>92.39013433333332</v>
       </c>
       <c r="H6">
-        <v>257.114426</v>
+        <v>277.170403</v>
       </c>
       <c r="I6">
-        <v>0.2432597358378337</v>
+        <v>0.2557671247968706</v>
       </c>
       <c r="J6">
-        <v>0.2432597358378336</v>
+        <v>0.2557671247968705</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N6">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P6">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q6">
-        <v>18.415049418972</v>
+        <v>25.82002446844511</v>
       </c>
       <c r="R6">
-        <v>165.735444770748</v>
+        <v>232.380220216006</v>
       </c>
       <c r="S6">
-        <v>0.005188268712882571</v>
+        <v>0.007089102333508468</v>
       </c>
       <c r="T6">
-        <v>0.005188268712882571</v>
+        <v>0.007089102333508465</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>764.743774</v>
       </c>
       <c r="I7">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J7">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N7">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O7">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P7">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q7">
-        <v>1685.030908482121</v>
+        <v>1557.974678439152</v>
       </c>
       <c r="R7">
-        <v>15165.27817633909</v>
+        <v>14021.77210595237</v>
       </c>
       <c r="S7">
-        <v>0.4747417692895835</v>
+        <v>0.4277548978300876</v>
       </c>
       <c r="T7">
-        <v>0.4747417692895836</v>
+        <v>0.4277548978300873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>764.743774</v>
       </c>
       <c r="I8">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J8">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>8.262912</v>
       </c>
       <c r="O8">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P8">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q8">
         <v>702.1122785677653</v>
@@ -948,10 +948,10 @@
         <v>6319.010507109888</v>
       </c>
       <c r="S8">
-        <v>0.1978135971805163</v>
+        <v>0.1927707620286167</v>
       </c>
       <c r="T8">
-        <v>0.1978135971805164</v>
+        <v>0.1927707620286166</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>764.743774</v>
       </c>
       <c r="I9">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J9">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N9">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O9">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P9">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q9">
-        <v>58.44775218774156</v>
+        <v>144.9033953829287</v>
       </c>
       <c r="R9">
-        <v>526.029769689674</v>
+        <v>1304.130558446358</v>
       </c>
       <c r="S9">
-        <v>0.01646710997699302</v>
+        <v>0.03978443163746081</v>
       </c>
       <c r="T9">
-        <v>0.01646710997699303</v>
+        <v>0.03978443163746079</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>764.743774</v>
       </c>
       <c r="I10">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J10">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N10">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O10">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P10">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q10">
-        <v>67.72613348309221</v>
+        <v>94.04215634785845</v>
       </c>
       <c r="R10">
-        <v>609.53520134783</v>
+        <v>846.379407130726</v>
       </c>
       <c r="S10">
-        <v>0.01908120751676221</v>
+        <v>0.02582005570244601</v>
       </c>
       <c r="T10">
-        <v>0.01908120751676221</v>
+        <v>0.02582005570244599</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>764.743774</v>
       </c>
       <c r="I11">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051698</v>
       </c>
       <c r="J11">
-        <v>0.7235353198224201</v>
+        <v>0.7056897640051695</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N11">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P11">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q11">
-        <v>54.772478581428</v>
+        <v>71.24030106768312</v>
       </c>
       <c r="R11">
-        <v>492.952307232852</v>
+        <v>641.162709609148</v>
       </c>
       <c r="S11">
-        <v>0.01543163585856493</v>
+        <v>0.01955961680655879</v>
       </c>
       <c r="T11">
-        <v>0.01543163585856494</v>
+        <v>0.01955961680655878</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H12">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I12">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J12">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N12">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O12">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P12">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q12">
-        <v>0.1076489575511111</v>
+        <v>2.103178020783889</v>
       </c>
       <c r="R12">
-        <v>0.9688406179600001</v>
+        <v>18.928602187055</v>
       </c>
       <c r="S12">
-        <v>3.032909148000713E-05</v>
+        <v>0.0005774450071936997</v>
       </c>
       <c r="T12">
-        <v>3.032909148000713E-05</v>
+        <v>0.0005774450071936993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H13">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I13">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J13">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>8.262912</v>
       </c>
       <c r="O13">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P13">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q13">
-        <v>0.04485475874133334</v>
+        <v>0.9478120105813334</v>
       </c>
       <c r="R13">
-        <v>0.403692828672</v>
+        <v>8.530308095232</v>
       </c>
       <c r="S13">
-        <v>1.263741063663934E-05</v>
+        <v>0.0002602296657058169</v>
       </c>
       <c r="T13">
-        <v>1.263741063663934E-05</v>
+        <v>0.0002602296657058168</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H14">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I14">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J14">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N14">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O14">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P14">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q14">
-        <v>0.003733960939555556</v>
+        <v>0.1956114181596667</v>
       </c>
       <c r="R14">
-        <v>0.033605648456</v>
+        <v>1.760502763437</v>
       </c>
       <c r="S14">
-        <v>1.052008728136401E-06</v>
+        <v>5.370674077521902E-05</v>
       </c>
       <c r="T14">
-        <v>1.052008728136401E-06</v>
+        <v>5.370674077521899E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H15">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I15">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J15">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N15">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O15">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P15">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q15">
-        <v>0.004326714502222223</v>
+        <v>0.1269516115987778</v>
       </c>
       <c r="R15">
-        <v>0.03894043052000001</v>
+        <v>1.142564504389</v>
       </c>
       <c r="S15">
-        <v>1.219011525341211E-06</v>
+        <v>3.485562018453629E-05</v>
       </c>
       <c r="T15">
-        <v>1.219011525341211E-06</v>
+        <v>3.485562018453628E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.01628533333333334</v>
+        <v>0.3441203333333334</v>
       </c>
       <c r="H16">
-        <v>0.048856</v>
+        <v>1.032361</v>
       </c>
       <c r="I16">
-        <v>4.622337936842643E-05</v>
+        <v>0.0009526414143230948</v>
       </c>
       <c r="J16">
-        <v>4.622337936842642E-05</v>
+        <v>0.0009526414143230943</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N16">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P16">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q16">
-        <v>0.003499164432</v>
+        <v>0.09617039190244446</v>
       </c>
       <c r="R16">
-        <v>0.031492479888</v>
+        <v>0.865533527122</v>
       </c>
       <c r="S16">
-        <v>9.858569983023472E-07</v>
+        <v>2.640438046382296E-05</v>
       </c>
       <c r="T16">
-        <v>9.858569983023472E-07</v>
+        <v>2.640438046382295E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H17">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I17">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J17">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N17">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O17">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P17">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q17">
-        <v>76.4682571995811</v>
+        <v>82.4429930263461</v>
       </c>
       <c r="R17">
-        <v>688.21431479623</v>
+        <v>741.9869372371148</v>
       </c>
       <c r="S17">
-        <v>0.02154421947673445</v>
+        <v>0.02263540900043493</v>
       </c>
       <c r="T17">
-        <v>0.02154421947673446</v>
+        <v>0.02263540900043492</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H18">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I18">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J18">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>8.262912</v>
       </c>
       <c r="O18">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P18">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q18">
-        <v>31.86250295483733</v>
+        <v>37.15351634833067</v>
       </c>
       <c r="R18">
-        <v>286.762526593536</v>
+        <v>334.381647134976</v>
       </c>
       <c r="S18">
-        <v>0.008976963538550162</v>
+        <v>0.01020080673296345</v>
       </c>
       <c r="T18">
-        <v>0.008976963538550166</v>
+        <v>0.01020080673296345</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H19">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I19">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J19">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N19">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O19">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P19">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q19">
-        <v>2.652412916897555</v>
+        <v>7.667820138782334</v>
       </c>
       <c r="R19">
-        <v>23.871716252078</v>
+        <v>69.010381249041</v>
       </c>
       <c r="S19">
-        <v>0.0007472926429514519</v>
+        <v>0.002105263753920777</v>
       </c>
       <c r="T19">
-        <v>0.000747292642951452</v>
+        <v>0.002105263753920776</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H20">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I20">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J20">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N20">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O20">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P20">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q20">
-        <v>3.073474420112221</v>
+        <v>4.976407477775223</v>
       </c>
       <c r="R20">
-        <v>27.66126978101</v>
+        <v>44.787667299977</v>
       </c>
       <c r="S20">
-        <v>0.0008659228010153943</v>
+        <v>0.001366314036855356</v>
       </c>
       <c r="T20">
-        <v>0.0008659228010153945</v>
+        <v>0.001366314036855356</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.56825933333333</v>
+        <v>13.48925766666667</v>
       </c>
       <c r="H21">
-        <v>34.704778</v>
+        <v>40.467773</v>
       </c>
       <c r="I21">
-        <v>0.03283470033140288</v>
+        <v>0.0373428253345738</v>
       </c>
       <c r="J21">
-        <v>0.03283470033140288</v>
+        <v>0.03734282533457379</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N21">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P21">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q21">
-        <v>2.485625609916</v>
+        <v>3.769806868749556</v>
       </c>
       <c r="R21">
-        <v>22.370630489244</v>
+        <v>33.928261818746</v>
       </c>
       <c r="S21">
-        <v>0.0007003018721514107</v>
+        <v>0.001035031810399291</v>
       </c>
       <c r="T21">
-        <v>0.0007003018721514108</v>
+        <v>0.00103503181039929</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H22">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I22">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J22">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.610178333333334</v>
+        <v>6.111751666666666</v>
       </c>
       <c r="N22">
-        <v>19.830535</v>
+        <v>18.335255</v>
       </c>
       <c r="O22">
-        <v>0.6561418030098394</v>
+        <v>0.6061514841909396</v>
       </c>
       <c r="P22">
-        <v>0.6561418030098395</v>
+        <v>0.6061514841909394</v>
       </c>
       <c r="Q22">
-        <v>0.7546069415694444</v>
+        <v>0.5467328570933332</v>
       </c>
       <c r="R22">
-        <v>6.791462474125</v>
+        <v>4.920595713839999</v>
       </c>
       <c r="S22">
-        <v>0.0002126034797080285</v>
+        <v>0.0001501100503511454</v>
       </c>
       <c r="T22">
-        <v>0.0002126034797080285</v>
+        <v>0.0001501100503511453</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H23">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I23">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J23">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>8.262912</v>
       </c>
       <c r="O23">
-        <v>0.2733986742057961</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="P23">
-        <v>0.2733986742057962</v>
+        <v>0.2731664420559804</v>
       </c>
       <c r="Q23">
-        <v>0.3144267541333333</v>
+        <v>0.246389018624</v>
       </c>
       <c r="R23">
-        <v>2.8298407872</v>
+        <v>2.217501167616</v>
       </c>
       <c r="S23">
-        <v>8.85868103770889E-05</v>
+        <v>6.764815304543532E-05</v>
       </c>
       <c r="T23">
-        <v>8.858681037708893E-05</v>
+        <v>6.764815304543531E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H24">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I24">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J24">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.2292836666666667</v>
+        <v>0.568439</v>
       </c>
       <c r="N24">
-        <v>0.687851</v>
+        <v>1.705317</v>
       </c>
       <c r="O24">
-        <v>0.02275923445041301</v>
+        <v>0.0563766596410053</v>
       </c>
       <c r="P24">
-        <v>0.02275923445041302</v>
+        <v>0.05637665964100529</v>
       </c>
       <c r="Q24">
-        <v>0.02617464124722222</v>
+        <v>0.050850279184</v>
       </c>
       <c r="R24">
-        <v>0.235571771225</v>
+        <v>0.457652512656</v>
       </c>
       <c r="S24">
-        <v>7.374461461611958E-06</v>
+        <v>1.396136681680534E-05</v>
       </c>
       <c r="T24">
-        <v>7.374461461611958E-06</v>
+        <v>1.396136681680533E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H25">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I25">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J25">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2656816666666666</v>
+        <v>0.3689163333333333</v>
       </c>
       <c r="N25">
-        <v>0.797045</v>
+        <v>1.106749</v>
       </c>
       <c r="O25">
-        <v>0.02637218528799033</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="P25">
-        <v>0.02637218528799034</v>
+        <v>0.036588394815171</v>
       </c>
       <c r="Q25">
-        <v>0.03032977626388888</v>
+        <v>0.03300177951466667</v>
       </c>
       <c r="R25">
-        <v>0.272967986375</v>
+        <v>0.297016015632</v>
       </c>
       <c r="S25">
-        <v>8.545132064459458E-06</v>
+        <v>9.060912876100156E-06</v>
       </c>
       <c r="T25">
-        <v>8.545132064459458E-06</v>
+        <v>9.060912876100154E-06</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1141583333333333</v>
+        <v>0.08945599999999999</v>
       </c>
       <c r="H26">
-        <v>0.342475</v>
+        <v>0.268368</v>
       </c>
       <c r="I26">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="J26">
-        <v>0.0003240206289749844</v>
+        <v>0.0002476444490629346</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.214866</v>
+        <v>0.2794673333333333</v>
       </c>
       <c r="N26">
-        <v>0.644598</v>
+        <v>0.838402</v>
       </c>
       <c r="O26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690382</v>
       </c>
       <c r="P26">
-        <v>0.02132810304596101</v>
+        <v>0.02771701929690381</v>
       </c>
       <c r="Q26">
-        <v>0.02452874445</v>
+        <v>0.02500002977066667</v>
       </c>
       <c r="R26">
-        <v>0.22075870005</v>
+        <v>0.225000267936</v>
       </c>
       <c r="S26">
-        <v>6.910745363795567E-06</v>
+        <v>6.863965973448473E-06</v>
       </c>
       <c r="T26">
-        <v>6.910745363795567E-06</v>
+        <v>6.863965973448471E-06</v>
       </c>
     </row>
   </sheetData>
